--- a/Lab 9/13Feb2009.xlsx
+++ b/Lab 9/13Feb2009.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pearl\Desktop\Edumacation\ATSC 303\Lab 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAEF001-E361-40A2-BBE1-4A51278BA784}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65A039D-187D-4F2A-B085-E0C04078163A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
